--- a/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="F18" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="G18" s="3">
         <v>600</v>
@@ -1159,7 +1159,7 @@
         <v>-1500</v>
       </c>
       <c r="E23" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="F23" s="3">
         <v>-2000</v>
@@ -1168,10 +1168,10 @@
         <v>-200</v>
       </c>
       <c r="H23" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="I23" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>-1500</v>
       </c>
       <c r="E26" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="F26" s="3">
         <v>-1800</v>
@@ -1267,7 +1267,7 @@
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="I26" s="3">
         <v>-1600</v>
@@ -1300,10 +1300,10 @@
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="I27" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -1498,10 +1498,10 @@
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="I33" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -1564,10 +1564,10 @@
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="I35" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>4200</v>
       </c>
       <c r="E41" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="F41" s="3">
         <v>2300</v>
@@ -1668,7 +1668,7 @@
         <v>1500</v>
       </c>
       <c r="I41" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -1884,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38400</v>
+        <v>38000</v>
       </c>
       <c r="E48" s="3">
-        <v>37100</v>
+        <v>36700</v>
       </c>
       <c r="F48" s="3">
-        <v>37000</v>
+        <v>36700</v>
       </c>
       <c r="G48" s="3">
-        <v>33300</v>
+        <v>33000</v>
       </c>
       <c r="H48" s="3">
-        <v>41800</v>
+        <v>41400</v>
       </c>
       <c r="I48" s="3">
-        <v>37500</v>
+        <v>37200</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2082,22 +2082,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>42700</v>
+        <v>42300</v>
       </c>
       <c r="E54" s="3">
-        <v>42800</v>
+        <v>42400</v>
       </c>
       <c r="F54" s="3">
-        <v>39400</v>
+        <v>39000</v>
       </c>
       <c r="G54" s="3">
-        <v>34500</v>
+        <v>34100</v>
       </c>
       <c r="H54" s="3">
-        <v>43500</v>
+        <v>43100</v>
       </c>
       <c r="I54" s="3">
-        <v>41100</v>
+        <v>40700</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -2292,7 +2292,7 @@
         <v>6900</v>
       </c>
       <c r="I61" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>400</v>
       </c>
       <c r="H66" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="I66" s="3">
         <v>6000</v>
@@ -2622,22 +2622,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-52400</v>
+        <v>-51900</v>
       </c>
       <c r="E72" s="3">
-        <v>-52400</v>
+        <v>-51900</v>
       </c>
       <c r="F72" s="3">
-        <v>-50700</v>
+        <v>-50200</v>
       </c>
       <c r="G72" s="3">
-        <v>-53200</v>
+        <v>-52700</v>
       </c>
       <c r="H72" s="3">
-        <v>-44000</v>
+        <v>-43500</v>
       </c>
       <c r="I72" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42600</v>
+        <v>42200</v>
       </c>
       <c r="E76" s="3">
-        <v>42400</v>
+        <v>42000</v>
       </c>
       <c r="F76" s="3">
-        <v>39100</v>
+        <v>38700</v>
       </c>
       <c r="G76" s="3">
-        <v>34100</v>
+        <v>33700</v>
       </c>
       <c r="H76" s="3">
-        <v>36400</v>
+        <v>36100</v>
       </c>
       <c r="I76" s="3">
-        <v>35000</v>
+        <v>34700</v>
       </c>
       <c r="J76" s="3">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="I81" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>-900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="H91" s="3">
         <v>-2100</v>
@@ -3434,10 +3434,10 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="F100" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G100" s="3">
         <v>2000</v>
@@ -3446,7 +3446,7 @@
         <v>1200</v>
       </c>
       <c r="I100" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>BNNLF</t>
   </si>
@@ -717,8 +717,8 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-2900</v>
+        <v>-3200</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E17" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F17" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G17" s="3">
         <v>-600</v>
       </c>
       <c r="H17" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="I17" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -1008,23 +1008,23 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-1600</v>
       </c>
       <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>700</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1500</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -1056,8 +1056,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="I21" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1132,13 +1132,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H22" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I22" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E23" s="3">
-        <v>-1600</v>
+        <v>-1800</v>
       </c>
       <c r="F23" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
-        <v>-3100</v>
+        <v>-3400</v>
       </c>
       <c r="I23" s="3">
-        <v>-2400</v>
+        <v>-2600</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>-100</v>
       </c>
       <c r="H24" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I24" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E26" s="3">
-        <v>-1600</v>
+        <v>-1800</v>
       </c>
       <c r="F26" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>-2800</v>
+        <v>-3100</v>
       </c>
       <c r="I26" s="3">
-        <v>-1600</v>
+        <v>-1800</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E27" s="3">
-        <v>-1600</v>
+        <v>-1800</v>
       </c>
       <c r="F27" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>-2700</v>
+        <v>-3000</v>
       </c>
       <c r="I27" s="3">
-        <v>-1500</v>
+        <v>-1700</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -1452,8 +1452,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1486,22 +1486,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E33" s="3">
-        <v>-1600</v>
+        <v>-1800</v>
       </c>
       <c r="F33" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>-2700</v>
+        <v>-3000</v>
       </c>
       <c r="I33" s="3">
-        <v>-1500</v>
+        <v>-1700</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -1552,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E35" s="3">
-        <v>-1600</v>
+        <v>-1800</v>
       </c>
       <c r="F35" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>-2700</v>
+        <v>-3000</v>
       </c>
       <c r="I35" s="3">
-        <v>-1500</v>
+        <v>-1700</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -1653,22 +1653,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4200</v>
+        <v>4500</v>
       </c>
       <c r="E41" s="3">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="F41" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="G41" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H41" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="I41" s="3">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="E46" s="3">
-        <v>5700</v>
+        <v>6100</v>
       </c>
       <c r="F46" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G46" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H46" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I46" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -1884,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38000</v>
+        <v>41200</v>
       </c>
       <c r="E48" s="3">
-        <v>36700</v>
+        <v>39800</v>
       </c>
       <c r="F48" s="3">
-        <v>36700</v>
+        <v>39800</v>
       </c>
       <c r="G48" s="3">
-        <v>33000</v>
+        <v>35800</v>
       </c>
       <c r="H48" s="3">
-        <v>41400</v>
+        <v>44900</v>
       </c>
       <c r="I48" s="3">
-        <v>37200</v>
+        <v>40300</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>42300</v>
+        <v>45900</v>
       </c>
       <c r="E54" s="3">
+        <v>46000</v>
+      </c>
+      <c r="F54" s="3">
         <v>42400</v>
       </c>
-      <c r="F54" s="3">
-        <v>39000</v>
-      </c>
       <c r="G54" s="3">
-        <v>34100</v>
+        <v>37000</v>
       </c>
       <c r="H54" s="3">
-        <v>43100</v>
+        <v>46800</v>
       </c>
       <c r="I54" s="3">
-        <v>40700</v>
+        <v>44100</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2244,7 +2244,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>6900</v>
+        <v>7400</v>
       </c>
       <c r="I61" s="3">
-        <v>6100</v>
+        <v>6700</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
@@ -2445,7 +2445,7 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F66" s="3">
         <v>300</v>
@@ -2454,10 +2454,10 @@
         <v>400</v>
       </c>
       <c r="H66" s="3">
-        <v>7000</v>
+        <v>7600</v>
       </c>
       <c r="I66" s="3">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
@@ -2622,22 +2622,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-51900</v>
+        <v>-56300</v>
       </c>
       <c r="E72" s="3">
-        <v>-51900</v>
+        <v>-56300</v>
       </c>
       <c r="F72" s="3">
-        <v>-50200</v>
+        <v>-54500</v>
       </c>
       <c r="G72" s="3">
-        <v>-52700</v>
+        <v>-57100</v>
       </c>
       <c r="H72" s="3">
-        <v>-43500</v>
+        <v>-47200</v>
       </c>
       <c r="I72" s="3">
-        <v>-26100</v>
+        <v>-28400</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42200</v>
+        <v>45800</v>
       </c>
       <c r="E76" s="3">
+        <v>45600</v>
+      </c>
+      <c r="F76" s="3">
         <v>42000</v>
       </c>
-      <c r="F76" s="3">
-        <v>38700</v>
-      </c>
       <c r="G76" s="3">
-        <v>33700</v>
+        <v>36600</v>
       </c>
       <c r="H76" s="3">
-        <v>36100</v>
+        <v>39200</v>
       </c>
       <c r="I76" s="3">
-        <v>34700</v>
+        <v>37600</v>
       </c>
       <c r="J76" s="3">
         <v>0</v>
@@ -2858,22 +2858,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E81" s="3">
-        <v>-1600</v>
+        <v>-1800</v>
       </c>
       <c r="F81" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>-2700</v>
+        <v>-3000</v>
       </c>
       <c r="I81" s="3">
-        <v>-1500</v>
+        <v>-1700</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
@@ -3110,16 +3110,16 @@
         <v>-1100</v>
       </c>
       <c r="F89" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="G89" s="3">
-        <v>-2100</v>
+        <v>-2300</v>
       </c>
       <c r="H89" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="I89" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -3152,22 +3152,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E91" s="3">
         <v>-700</v>
       </c>
       <c r="F91" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2100</v>
+        <v>-2300</v>
       </c>
       <c r="I91" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E94" s="3">
         <v>-700</v>
       </c>
       <c r="F94" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="G94" s="3">
         <v>-400</v>
       </c>
       <c r="H94" s="3">
-        <v>-2100</v>
+        <v>-2300</v>
       </c>
       <c r="I94" s="3">
         <v>-400</v>
@@ -3434,19 +3434,19 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>5000</v>
+        <v>5400</v>
       </c>
       <c r="F100" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="G100" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="H100" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I100" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E102" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="F102" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G102" s="3">
         <v>-500</v>
       </c>
       <c r="H102" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="I102" s="3">
         <v>900</v>

--- a/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>BNNLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,67 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42551</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42185</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41820</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41090</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
@@ -730,23 +733,26 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,9 +783,12 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -849,18 +862,21 @@
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
+      <c r="J12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,42 +907,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>-3200</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>-3300</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -943,23 +965,26 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E17" s="3">
         <v>1800</v>
       </c>
       <c r="F17" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="G17" s="3">
-        <v>-600</v>
+        <v>2300</v>
       </c>
       <c r="H17" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="E18" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,49 +1083,53 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1700</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1101,24 +1137,27 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
-        <v>-1800</v>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1128,63 +1167,69 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="H22" s="3">
-        <v>1500</v>
-      </c>
       <c r="I22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
-        <v>-2100</v>
-      </c>
       <c r="G23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>-3400</v>
-      </c>
       <c r="I23" s="3">
-        <v>-2600</v>
+        <v>-3500</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+        <v>-2700</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1195,29 +1240,32 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-900</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
-        <v>-1900</v>
-      </c>
       <c r="G26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
-        <v>-1900</v>
-      </c>
       <c r="G27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>-3000</v>
-      </c>
       <c r="I27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
-        <v>-1900</v>
-      </c>
       <c r="G33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>-3000</v>
-      </c>
       <c r="I33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
-        <v>-1900</v>
-      </c>
       <c r="G35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>-3000</v>
-      </c>
       <c r="I35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42551</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42185</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41820</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41090</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,49 +1732,53 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4500</v>
+        <v>500</v>
       </c>
       <c r="E41" s="3">
-        <v>6000</v>
+        <v>4600</v>
       </c>
       <c r="F41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G41" s="3">
         <v>2500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
-        <v>3100</v>
-      </c>
       <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
+        <v>3200</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1700,54 +1789,60 @@
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3">
         <v>600</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,9 +1873,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1794,73 +1892,79 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4700</v>
+        <v>3100</v>
       </c>
       <c r="E46" s="3">
-        <v>6100</v>
+        <v>4800</v>
       </c>
       <c r="F46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G46" s="3">
         <v>2600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
-        <v>1800</v>
-      </c>
       <c r="I46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J46" s="3">
         <v>3800</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1868,51 +1972,57 @@
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>42100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>40700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>40600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>36500</v>
+      </c>
+      <c r="I48" s="3">
+        <v>45900</v>
+      </c>
+      <c r="J48" s="3">
         <v>41200</v>
       </c>
-      <c r="E48" s="3">
-        <v>39800</v>
-      </c>
-      <c r="F48" s="3">
-        <v>39800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>35800</v>
-      </c>
-      <c r="H48" s="3">
-        <v>44900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>40300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,23 +2125,26 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2033,8 +2152,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>45900</v>
+        <v>38600</v>
       </c>
       <c r="E54" s="3">
-        <v>46000</v>
+        <v>46900</v>
       </c>
       <c r="F54" s="3">
-        <v>42400</v>
+        <v>46900</v>
       </c>
       <c r="G54" s="3">
-        <v>37000</v>
+        <v>43300</v>
       </c>
       <c r="H54" s="3">
-        <v>46800</v>
+        <v>37800</v>
       </c>
       <c r="I54" s="3">
-        <v>44100</v>
+        <v>47800</v>
       </c>
       <c r="J54" s="3">
+        <v>45100</v>
+      </c>
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,8 +2268,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2157,28 +2287,31 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2192,26 +2325,29 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -2229,17 +2365,20 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2256,23 +2395,26 @@
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
+        <v>700</v>
+      </c>
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
+      <c r="K60" s="3">
+        <v>0</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2289,13 +2431,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>7400</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>6700</v>
+        <v>7600</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>6800</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2303,9 +2445,12 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2313,10 +2458,10 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -2324,8 +2469,8 @@
       <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
+        <v>200</v>
+      </c>
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3">
-        <v>400</v>
-      </c>
       <c r="H66" s="3">
-        <v>7600</v>
+        <v>500</v>
       </c>
       <c r="I66" s="3">
-        <v>6500</v>
+        <v>7800</v>
       </c>
       <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
+        <v>6600</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-56300</v>
+        <v>-40100</v>
       </c>
       <c r="E72" s="3">
-        <v>-56300</v>
+        <v>-38600</v>
       </c>
       <c r="F72" s="3">
-        <v>-54500</v>
+        <v>-57500</v>
       </c>
       <c r="G72" s="3">
-        <v>-57100</v>
+        <v>-55700</v>
       </c>
       <c r="H72" s="3">
-        <v>-47200</v>
+        <v>-58400</v>
       </c>
       <c r="I72" s="3">
-        <v>-28400</v>
+        <v>-48200</v>
       </c>
       <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+        <v>-29000</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45800</v>
+        <v>38200</v>
       </c>
       <c r="E76" s="3">
-        <v>45600</v>
+        <v>46700</v>
       </c>
       <c r="F76" s="3">
-        <v>42000</v>
+        <v>46600</v>
       </c>
       <c r="G76" s="3">
-        <v>36600</v>
+        <v>42900</v>
       </c>
       <c r="H76" s="3">
-        <v>39200</v>
+        <v>37400</v>
       </c>
       <c r="I76" s="3">
-        <v>37600</v>
+        <v>40000</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+        <v>38400</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42551</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42185</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41820</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41090</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
-        <v>-1900</v>
-      </c>
       <c r="G81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>-3000</v>
-      </c>
       <c r="I81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,16 +3097,17 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2917,14 +3115,14 @@
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
-        <v>100</v>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E89" s="3">
         <v>-1100</v>
       </c>
       <c r="F89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
-        <v>-700</v>
-      </c>
       <c r="F91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-1100</v>
-      </c>
       <c r="H91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-2300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
-        <v>-700</v>
-      </c>
       <c r="F94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2300</v>
       </c>
-      <c r="I94" s="3">
-        <v>-400</v>
-      </c>
       <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+        <v>-500</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,42 +3666,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>5400</v>
-      </c>
       <c r="F100" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G100" s="3">
         <v>2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2200</v>
       </c>
-      <c r="H100" s="3">
-        <v>1300</v>
-      </c>
       <c r="I100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J100" s="3">
         <v>2800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3484,15 +3732,18 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3500,30 +3751,33 @@
         <v>-1500</v>
       </c>
       <c r="E102" s="3">
-        <v>3500</v>
+        <v>-1500</v>
       </c>
       <c r="F102" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
-        <v>-2000</v>
-      </c>
       <c r="I102" s="3">
-        <v>900</v>
+        <v>-2100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+        <v>1000</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
@@ -739,7 +739,7 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>-700</v>
       </c>
       <c r="I17" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J17" s="3">
         <v>1700</v>
@@ -1044,7 +1044,7 @@
         <v>-1700</v>
       </c>
       <c r="F18" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G18" s="3">
         <v>-2300</v>
@@ -1056,7 +1056,7 @@
         <v>-2000</v>
       </c>
       <c r="J18" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>-1900</v>
       </c>
       <c r="J21" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1198,13 +1198,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="E23" s="3">
         <v>-1700</v>
       </c>
       <c r="F23" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G23" s="3">
         <v>-2200</v>
@@ -1213,10 +1213,10 @@
         <v>-200</v>
       </c>
       <c r="I23" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="J23" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="E26" s="3">
         <v>-1700</v>
       </c>
       <c r="F26" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G26" s="3">
         <v>-2000</v>
@@ -1321,7 +1321,7 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="J26" s="3">
         <v>-1800</v>
@@ -1345,10 +1345,10 @@
         <v>-1700</v>
       </c>
       <c r="E27" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F27" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G27" s="3">
         <v>-2000</v>
@@ -1360,7 +1360,7 @@
         <v>-3100</v>
       </c>
       <c r="J27" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1561,10 +1561,10 @@
         <v>-1700</v>
       </c>
       <c r="E33" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F33" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G33" s="3">
         <v>-2000</v>
@@ -1576,7 +1576,7 @@
         <v>-3100</v>
       </c>
       <c r="J33" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -1633,10 +1633,10 @@
         <v>-1700</v>
       </c>
       <c r="E35" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F35" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G35" s="3">
         <v>-2000</v>
@@ -1648,7 +1648,7 @@
         <v>-3100</v>
       </c>
       <c r="J35" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>500</v>
       </c>
       <c r="E41" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="F41" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="G41" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H41" s="3">
         <v>1200</v>
@@ -1775,7 +1775,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -1919,16 +1919,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E46" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="F46" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="G46" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="H46" s="3">
         <v>1300</v>
@@ -1937,7 +1937,7 @@
         <v>1900</v>
       </c>
       <c r="J46" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35500</v>
+        <v>36400</v>
       </c>
       <c r="E48" s="3">
-        <v>42100</v>
+        <v>43200</v>
       </c>
       <c r="F48" s="3">
-        <v>40700</v>
+        <v>41700</v>
       </c>
       <c r="G48" s="3">
-        <v>40600</v>
+        <v>41700</v>
       </c>
       <c r="H48" s="3">
-        <v>36500</v>
+        <v>37500</v>
       </c>
       <c r="I48" s="3">
-        <v>45900</v>
+        <v>47100</v>
       </c>
       <c r="J48" s="3">
-        <v>41200</v>
+        <v>42300</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>38600</v>
+        <v>39600</v>
       </c>
       <c r="E54" s="3">
-        <v>46900</v>
+        <v>48100</v>
       </c>
       <c r="F54" s="3">
-        <v>46900</v>
+        <v>48200</v>
       </c>
       <c r="G54" s="3">
-        <v>43300</v>
+        <v>44400</v>
       </c>
       <c r="H54" s="3">
-        <v>37800</v>
+        <v>38800</v>
       </c>
       <c r="I54" s="3">
-        <v>47800</v>
+        <v>49000</v>
       </c>
       <c r="J54" s="3">
-        <v>45100</v>
+        <v>46200</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
@@ -2362,7 +2362,7 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -2434,10 +2434,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="J61" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -2608,16 +2608,16 @@
         <v>400</v>
       </c>
       <c r="G66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H66" s="3">
         <v>500</v>
       </c>
       <c r="I66" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="J66" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-40100</v>
+        <v>-41100</v>
       </c>
       <c r="E72" s="3">
-        <v>-38600</v>
+        <v>-39600</v>
       </c>
       <c r="F72" s="3">
-        <v>-57500</v>
+        <v>-59100</v>
       </c>
       <c r="G72" s="3">
-        <v>-55700</v>
+        <v>-57100</v>
       </c>
       <c r="H72" s="3">
-        <v>-58400</v>
+        <v>-59900</v>
       </c>
       <c r="I72" s="3">
-        <v>-48200</v>
+        <v>-49500</v>
       </c>
       <c r="J72" s="3">
-        <v>-29000</v>
+        <v>-29700</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>38200</v>
+        <v>39200</v>
       </c>
       <c r="E76" s="3">
-        <v>46700</v>
+        <v>48000</v>
       </c>
       <c r="F76" s="3">
-        <v>46600</v>
+        <v>47800</v>
       </c>
       <c r="G76" s="3">
-        <v>42900</v>
+        <v>44000</v>
       </c>
       <c r="H76" s="3">
-        <v>37400</v>
+        <v>38400</v>
       </c>
       <c r="I76" s="3">
-        <v>40000</v>
+        <v>41000</v>
       </c>
       <c r="J76" s="3">
-        <v>38400</v>
+        <v>39400</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
@@ -3055,10 +3055,10 @@
         <v>-1700</v>
       </c>
       <c r="E81" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F81" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G81" s="3">
         <v>-2000</v>
@@ -3070,7 +3070,7 @@
         <v>-3100</v>
       </c>
       <c r="J81" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -3332,10 +3332,10 @@
         <v>-1000</v>
       </c>
       <c r="H89" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="I89" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="J89" s="3">
         <v>-1400</v>
@@ -3387,7 +3387,7 @@
         <v>-1200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="J91" s="3">
         <v>-500</v>
@@ -3495,7 +3495,7 @@
         <v>-400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="J94" s="3">
         <v>-500</v>
@@ -3682,19 +3682,19 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="G100" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H100" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="I100" s="3">
         <v>1400</v>
       </c>
       <c r="J100" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E102" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="F102" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="G102" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H102" s="3">
         <v>-500</v>

--- a/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1005,13 +1005,13 @@
         <v>1800</v>
       </c>
       <c r="E17" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F17" s="3">
         <v>1900</v>
       </c>
       <c r="G17" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H17" s="3">
         <v>-700</v>
@@ -1020,7 +1020,7 @@
         <v>2100</v>
       </c>
       <c r="J17" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -1047,13 +1047,13 @@
         <v>-1900</v>
       </c>
       <c r="G18" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="H18" s="3">
         <v>700</v>
       </c>
       <c r="I18" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="J18" s="3">
         <v>-1700</v>
@@ -1126,7 +1126,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="E21" s="3">
         <v>-1700</v>
@@ -1141,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="J21" s="3">
         <v>-1700</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I22" s="3">
         <v>1600</v>
@@ -1207,13 +1207,13 @@
         <v>-1900</v>
       </c>
       <c r="G23" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="J23" s="3">
         <v>-2800</v>
@@ -1252,7 +1252,7 @@
         <v>-400</v>
       </c>
       <c r="J24" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1315,16 +1315,16 @@
         <v>-1900</v>
       </c>
       <c r="G26" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="J26" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="E27" s="3">
         <v>-1700</v>
@@ -1351,13 +1351,13 @@
         <v>-1900</v>
       </c>
       <c r="G27" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="J27" s="3">
         <v>-1800</v>
@@ -1558,7 +1558,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="E33" s="3">
         <v>-1700</v>
@@ -1567,13 +1567,13 @@
         <v>-1900</v>
       </c>
       <c r="G33" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="J33" s="3">
         <v>-1800</v>
@@ -1630,7 +1630,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="E35" s="3">
         <v>-1700</v>
@@ -1639,13 +1639,13 @@
         <v>-1900</v>
       </c>
       <c r="G35" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="J35" s="3">
         <v>-1800</v>
@@ -1742,22 +1742,22 @@
         <v>500</v>
       </c>
       <c r="E41" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="F41" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="G41" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="H41" s="3">
         <v>1200</v>
       </c>
       <c r="I41" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J41" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -1793,7 +1793,7 @@
         <v>3</v>
       </c>
       <c r="J42" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1919,13 +1919,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E46" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="F46" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="G46" s="3">
         <v>2700</v>
@@ -1934,10 +1934,10 @@
         <v>1300</v>
       </c>
       <c r="I46" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J46" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36400</v>
+        <v>37200</v>
       </c>
       <c r="E48" s="3">
+        <v>44200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>42700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>42600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>38300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>48200</v>
+      </c>
+      <c r="J48" s="3">
         <v>43200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>41700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>41700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>37500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>47100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>42300</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39600</v>
+        <v>40500</v>
       </c>
       <c r="E54" s="3">
-        <v>48100</v>
+        <v>49200</v>
       </c>
       <c r="F54" s="3">
-        <v>48200</v>
+        <v>49300</v>
       </c>
       <c r="G54" s="3">
-        <v>44400</v>
+        <v>45400</v>
       </c>
       <c r="H54" s="3">
-        <v>38800</v>
+        <v>39700</v>
       </c>
       <c r="I54" s="3">
-        <v>49000</v>
+        <v>50100</v>
       </c>
       <c r="J54" s="3">
-        <v>46200</v>
+        <v>47300</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
@@ -2434,10 +2434,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="J61" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2614,10 +2614,10 @@
         <v>500</v>
       </c>
       <c r="I66" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="J66" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-41100</v>
+        <v>-42000</v>
       </c>
       <c r="E72" s="3">
-        <v>-39600</v>
+        <v>-40500</v>
       </c>
       <c r="F72" s="3">
-        <v>-59100</v>
+        <v>-60400</v>
       </c>
       <c r="G72" s="3">
-        <v>-57100</v>
+        <v>-58400</v>
       </c>
       <c r="H72" s="3">
-        <v>-59900</v>
+        <v>-61200</v>
       </c>
       <c r="I72" s="3">
-        <v>-49500</v>
+        <v>-50600</v>
       </c>
       <c r="J72" s="3">
-        <v>-29700</v>
+        <v>-30400</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>48900</v>
+      </c>
+      <c r="G76" s="3">
+        <v>45000</v>
+      </c>
+      <c r="H76" s="3">
         <v>39200</v>
       </c>
-      <c r="E76" s="3">
-        <v>48000</v>
-      </c>
-      <c r="F76" s="3">
-        <v>47800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>44000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>38400</v>
-      </c>
       <c r="I76" s="3">
-        <v>41000</v>
+        <v>42000</v>
       </c>
       <c r="J76" s="3">
-        <v>39400</v>
+        <v>40300</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="E81" s="3">
         <v>-1700</v>
@@ -3061,13 +3061,13 @@
         <v>-1900</v>
       </c>
       <c r="G81" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="J81" s="3">
         <v>-1800</v>
@@ -3320,7 +3320,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="E89" s="3">
         <v>-1100</v>
@@ -3329,7 +3329,7 @@
         <v>-1200</v>
       </c>
       <c r="G89" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H89" s="3">
         <v>-2400</v>
@@ -3338,7 +3338,7 @@
         <v>-1200</v>
       </c>
       <c r="J89" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>-1200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="J91" s="3">
         <v>-500</v>
@@ -3682,10 +3682,10 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G100" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H100" s="3">
         <v>2300</v>
@@ -3694,7 +3694,7 @@
         <v>1400</v>
       </c>
       <c r="J100" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>-1600</v>
       </c>
       <c r="F102" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="G102" s="3">
         <v>1400</v>
@@ -3763,7 +3763,7 @@
         <v>-500</v>
       </c>
       <c r="I102" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J102" s="3">
         <v>1000</v>

--- a/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
@@ -739,7 +739,7 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2100</v>
-      </c>
       <c r="J17" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -1041,22 +1041,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="F18" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="G18" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
       </c>
       <c r="H18" s="3">
         <v>700</v>
       </c>
       <c r="I18" s="3">
-        <v>-2100</v>
+        <v>-1900</v>
       </c>
       <c r="J18" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-2000</v>
-      </c>
       <c r="J21" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1174,13 +1174,13 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I22" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J22" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1900</v>
-      </c>
       <c r="G23" s="3">
-        <v>-2300</v>
+        <v>-2100</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
-        <v>-3700</v>
+        <v>-3400</v>
       </c>
       <c r="J23" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>-400</v>
       </c>
       <c r="J24" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-2100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-3300</v>
+        <v>-3000</v>
       </c>
       <c r="J26" s="3">
-        <v>-1900</v>
+        <v>-1700</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="E27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-2100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="J27" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="E33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-2100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="J33" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="E35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-2100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="J35" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -1742,22 +1742,22 @@
         <v>500</v>
       </c>
       <c r="E41" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="F41" s="3">
-        <v>6500</v>
+        <v>5900</v>
       </c>
       <c r="G41" s="3">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="H41" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I41" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="J41" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -1793,7 +1793,7 @@
         <v>3</v>
       </c>
       <c r="J42" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="E46" s="3">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="F46" s="3">
-        <v>6600</v>
+        <v>6100</v>
       </c>
       <c r="G46" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="H46" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I46" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="J46" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37200</v>
+        <v>34300</v>
       </c>
       <c r="E48" s="3">
-        <v>44200</v>
+        <v>40700</v>
       </c>
       <c r="F48" s="3">
-        <v>42700</v>
+        <v>39300</v>
       </c>
       <c r="G48" s="3">
-        <v>42600</v>
+        <v>39300</v>
       </c>
       <c r="H48" s="3">
-        <v>38300</v>
+        <v>35400</v>
       </c>
       <c r="I48" s="3">
-        <v>48200</v>
+        <v>44400</v>
       </c>
       <c r="J48" s="3">
-        <v>43200</v>
+        <v>39900</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>40500</v>
+        <v>37400</v>
       </c>
       <c r="E54" s="3">
-        <v>49200</v>
+        <v>45400</v>
       </c>
       <c r="F54" s="3">
-        <v>49300</v>
+        <v>45400</v>
       </c>
       <c r="G54" s="3">
-        <v>45400</v>
+        <v>41900</v>
       </c>
       <c r="H54" s="3">
-        <v>39700</v>
+        <v>36600</v>
       </c>
       <c r="I54" s="3">
-        <v>50100</v>
+        <v>46200</v>
       </c>
       <c r="J54" s="3">
-        <v>47300</v>
+        <v>43600</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
@@ -2362,7 +2362,7 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -2398,7 +2398,7 @@
         <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J60" s="3">
         <v>500</v>
@@ -2434,10 +2434,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>8000</v>
+        <v>7300</v>
       </c>
       <c r="J61" s="3">
-        <v>7100</v>
+        <v>6600</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2461,7 +2461,7 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>400</v>
       </c>
       <c r="G66" s="3">
+        <v>300</v>
+      </c>
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
-        <v>500</v>
-      </c>
       <c r="I66" s="3">
-        <v>8200</v>
+        <v>7500</v>
       </c>
       <c r="J66" s="3">
-        <v>6900</v>
+        <v>6400</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-42000</v>
+        <v>-38800</v>
       </c>
       <c r="E72" s="3">
-        <v>-40500</v>
+        <v>-37300</v>
       </c>
       <c r="F72" s="3">
-        <v>-60400</v>
+        <v>-55700</v>
       </c>
       <c r="G72" s="3">
-        <v>-58400</v>
+        <v>-53900</v>
       </c>
       <c r="H72" s="3">
-        <v>-61200</v>
+        <v>-56500</v>
       </c>
       <c r="I72" s="3">
-        <v>-50600</v>
+        <v>-46700</v>
       </c>
       <c r="J72" s="3">
-        <v>-30400</v>
+        <v>-28000</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>40000</v>
+        <v>36900</v>
       </c>
       <c r="E76" s="3">
-        <v>49000</v>
+        <v>45200</v>
       </c>
       <c r="F76" s="3">
-        <v>48900</v>
+        <v>45100</v>
       </c>
       <c r="G76" s="3">
-        <v>45000</v>
+        <v>41500</v>
       </c>
       <c r="H76" s="3">
-        <v>39200</v>
+        <v>36200</v>
       </c>
       <c r="I76" s="3">
-        <v>42000</v>
+        <v>38700</v>
       </c>
       <c r="J76" s="3">
-        <v>40300</v>
+        <v>37200</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="E81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-2100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="J81" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="E89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
-        <v>-1200</v>
-      </c>
       <c r="G89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-1200</v>
-      </c>
       <c r="J89" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3372,22 +3372,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
         <v>-600</v>
       </c>
       <c r="F91" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="G91" s="3">
         <v>-1000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I91" s="3">
-        <v>-2500</v>
+        <v>-2300</v>
       </c>
       <c r="J91" s="3">
         <v>-500</v>
@@ -3480,13 +3480,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
         <v>-600</v>
       </c>
       <c r="F94" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="G94" s="3">
         <v>-500</v>
@@ -3495,10 +3495,10 @@
         <v>-400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
       </c>
       <c r="J94" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3682,19 +3682,19 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="G100" s="3">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="H100" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="I100" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J100" s="3">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="E102" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="F102" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="G102" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H102" s="3">
         <v>-500</v>
       </c>
       <c r="I102" s="3">
-        <v>-2200</v>
+        <v>-2000</v>
       </c>
       <c r="J102" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>BNNLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,61 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42185</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41820</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41090</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -727,7 +730,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -736,23 +739,26 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -786,9 +792,12 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -865,18 +878,21 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,45 +926,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-3200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -968,23 +990,26 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,8 +1021,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1008,32 +1034,35 @@
         <v>1700</v>
       </c>
       <c r="F17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1044,32 +1073,35 @@
         <v>-1600</v>
       </c>
       <c r="F18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
+      <c r="L18" s="3">
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,8 +1116,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1099,29 +1132,32 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1131,8 +1167,8 @@
       <c r="E21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="F21" s="3">
+        <v>-1600</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1140,29 +1176,32 @@
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1170,66 +1209,72 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1243,29 +1288,32 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-900</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,45 +1347,51 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1348,32 +1402,35 @@
         <v>-1600</v>
       </c>
       <c r="F27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,9 +1581,12 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1531,29 +1600,32 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1564,32 +1636,35 @@
         <v>-1600</v>
       </c>
       <c r="F33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,9 +1698,12 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1636,73 +1714,79 @@
         <v>-1600</v>
       </c>
       <c r="F35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42185</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41820</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41090</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,55 +1818,59 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3000</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3">
         <v>2500</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+      <c r="F42" s="3">
+        <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1792,21 +1881,24 @@
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="3">
         <v>600</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
+      <c r="L42" s="3">
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1814,35 +1906,38 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,9 +1971,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1895,79 +1993,85 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3700</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
+      <c r="L46" s="3">
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1975,54 +2079,60 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E48" s="3">
         <v>34300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>40700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>39300</v>
       </c>
       <c r="G48" s="3">
         <v>39300</v>
       </c>
       <c r="H48" s="3">
-        <v>35400</v>
+        <v>39300</v>
       </c>
       <c r="I48" s="3">
+        <v>35300</v>
+      </c>
+      <c r="J48" s="3">
         <v>44400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>39900</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,26 +2244,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2155,8 +2274,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37400</v>
+        <v>47800</v>
       </c>
       <c r="E54" s="3">
+        <v>37300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>45300</v>
+      </c>
+      <c r="G54" s="3">
         <v>45400</v>
       </c>
-      <c r="F54" s="3">
-        <v>45400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>41900</v>
-      </c>
       <c r="H54" s="3">
+        <v>41800</v>
+      </c>
+      <c r="I54" s="3">
         <v>36600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>46200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>43600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,8 +2398,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2290,31 +2420,34 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2328,29 +2461,32 @@
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -2368,17 +2504,20 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2398,23 +2537,26 @@
         <v>200</v>
       </c>
       <c r="I60" s="3">
+        <v>200</v>
+      </c>
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
+      <c r="L60" s="3">
+        <v>0</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2434,23 +2576,26 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>7300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2461,7 +2606,7 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -2472,8 +2617,8 @@
       <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>300</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,9 +2746,12 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2602,35 +2759,38 @@
         <v>400</v>
       </c>
       <c r="E66" s="3">
+        <v>400</v>
+      </c>
+      <c r="F66" s="3">
         <v>100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>400</v>
       </c>
       <c r="G66" s="3">
         <v>300</v>
       </c>
       <c r="H66" s="3">
+        <v>300</v>
+      </c>
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6400</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
+      <c r="L66" s="3">
+        <v>0</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-38800</v>
+        <v>-39700</v>
       </c>
       <c r="E72" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-37300</v>
       </c>
-      <c r="F72" s="3">
-        <v>-55700</v>
-      </c>
       <c r="G72" s="3">
-        <v>-53900</v>
+        <v>-55600</v>
       </c>
       <c r="H72" s="3">
-        <v>-56500</v>
+        <v>-53800</v>
       </c>
       <c r="I72" s="3">
-        <v>-46700</v>
+        <v>-56400</v>
       </c>
       <c r="J72" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-28000</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E76" s="3">
         <v>36900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>45200</v>
       </c>
-      <c r="F76" s="3">
-        <v>45100</v>
-      </c>
       <c r="G76" s="3">
+        <v>45000</v>
+      </c>
+      <c r="H76" s="3">
         <v>41500</v>
       </c>
-      <c r="H76" s="3">
-        <v>36200</v>
-      </c>
       <c r="I76" s="3">
+        <v>36100</v>
+      </c>
+      <c r="J76" s="3">
         <v>38700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>37200</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,50 +3192,56 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42185</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41820</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41090</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3058,32 +3252,35 @@
         <v>-1600</v>
       </c>
       <c r="F81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,8 +3295,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3109,8 +3307,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -3118,14 +3316,14 @@
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
-        <v>100</v>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>100</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,45 +3911,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3735,49 +3983,55 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1500</v>
+        <v>5900</v>
       </c>
       <c r="E102" s="3">
         <v>-1500</v>
       </c>
       <c r="F102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G102" s="3">
         <v>3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
@@ -1034,19 +1034,19 @@
         <v>1700</v>
       </c>
       <c r="F17" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G17" s="3">
         <v>1800</v>
       </c>
       <c r="H17" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="I17" s="3">
         <v>-600</v>
       </c>
       <c r="J17" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K17" s="3">
         <v>1600</v>
@@ -1070,7 +1070,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F18" s="3">
         <v>-1600</v>
@@ -1165,7 +1165,7 @@
         <v>-1600</v>
       </c>
       <c r="E21" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F21" s="3">
         <v>-1600</v>
@@ -1180,7 +1180,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="K21" s="3">
         <v>-1600</v>
@@ -1240,7 +1240,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E23" s="3">
         <v>-1700</v>
@@ -1252,13 +1252,13 @@
         <v>-1800</v>
       </c>
       <c r="H23" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="K23" s="3">
         <v>-2600</v>
@@ -1357,7 +1357,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E26" s="3">
         <v>-1700</v>
@@ -1369,13 +1369,13 @@
         <v>-1800</v>
       </c>
       <c r="H26" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="K26" s="3">
         <v>-1700</v>
@@ -1399,16 +1399,16 @@
         <v>-1600</v>
       </c>
       <c r="E27" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F27" s="3">
         <v>-1600</v>
       </c>
       <c r="G27" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="H27" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
@@ -1633,16 +1633,16 @@
         <v>-1600</v>
       </c>
       <c r="E33" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F33" s="3">
         <v>-1600</v>
       </c>
       <c r="G33" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="H33" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
@@ -1711,16 +1711,16 @@
         <v>-1600</v>
       </c>
       <c r="E35" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F35" s="3">
         <v>-1600</v>
       </c>
       <c r="G35" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="H35" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="E41" s="3">
         <v>500</v>
       </c>
       <c r="F41" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="G41" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="H41" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="I41" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J41" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K41" s="3">
         <v>3000</v>
@@ -1867,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="E46" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F46" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="G46" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H46" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I46" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J46" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K46" s="3">
         <v>3700</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38900</v>
+        <v>39700</v>
       </c>
       <c r="E48" s="3">
-        <v>34300</v>
+        <v>35000</v>
       </c>
       <c r="F48" s="3">
-        <v>40700</v>
+        <v>41600</v>
       </c>
       <c r="G48" s="3">
-        <v>39300</v>
+        <v>40100</v>
       </c>
       <c r="H48" s="3">
-        <v>39300</v>
+        <v>40100</v>
       </c>
       <c r="I48" s="3">
-        <v>35300</v>
+        <v>36100</v>
       </c>
       <c r="J48" s="3">
-        <v>44400</v>
+        <v>45300</v>
       </c>
       <c r="K48" s="3">
         <v>39900</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>47800</v>
+        <v>48800</v>
       </c>
       <c r="E54" s="3">
+        <v>38100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>46300</v>
+      </c>
+      <c r="G54" s="3">
+        <v>46300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>42700</v>
+      </c>
+      <c r="I54" s="3">
         <v>37300</v>
       </c>
-      <c r="F54" s="3">
-        <v>45300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>45400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>41800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>36600</v>
-      </c>
       <c r="J54" s="3">
-        <v>46200</v>
+        <v>47200</v>
       </c>
       <c r="K54" s="3">
         <v>43600</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="K61" s="3">
         <v>6600</v>
@@ -2762,19 +2762,19 @@
         <v>400</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
       </c>
       <c r="I66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J66" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="K66" s="3">
         <v>6400</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-39700</v>
+        <v>-40600</v>
       </c>
       <c r="E72" s="3">
-        <v>-38700</v>
+        <v>-39500</v>
       </c>
       <c r="F72" s="3">
-        <v>-37300</v>
+        <v>-38100</v>
       </c>
       <c r="G72" s="3">
-        <v>-55600</v>
+        <v>-56800</v>
       </c>
       <c r="H72" s="3">
-        <v>-53800</v>
+        <v>-54900</v>
       </c>
       <c r="I72" s="3">
-        <v>-56400</v>
+        <v>-57600</v>
       </c>
       <c r="J72" s="3">
-        <v>-46600</v>
+        <v>-47600</v>
       </c>
       <c r="K72" s="3">
         <v>-28000</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47400</v>
+        <v>48400</v>
       </c>
       <c r="E76" s="3">
+        <v>37700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>46100</v>
+      </c>
+      <c r="G76" s="3">
+        <v>46000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>42400</v>
+      </c>
+      <c r="I76" s="3">
         <v>36900</v>
       </c>
-      <c r="F76" s="3">
-        <v>45200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>45000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>41500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>36100</v>
-      </c>
       <c r="J76" s="3">
-        <v>38700</v>
+        <v>39500</v>
       </c>
       <c r="K76" s="3">
         <v>37200</v>
@@ -3249,16 +3249,16 @@
         <v>-1600</v>
       </c>
       <c r="E81" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F81" s="3">
         <v>-1600</v>
       </c>
       <c r="G81" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="H81" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
@@ -3536,7 +3536,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E89" s="3">
         <v>-1100</v>
@@ -3545,13 +3545,13 @@
         <v>-1000</v>
       </c>
       <c r="G89" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="H89" s="3">
         <v>-1000</v>
       </c>
       <c r="I89" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="J89" s="3">
         <v>-1100</v>
@@ -3595,7 +3595,7 @@
         <v>-1100</v>
       </c>
       <c r="E91" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F91" s="3">
         <v>-600</v>
@@ -3712,7 +3712,7 @@
         <v>-1100</v>
       </c>
       <c r="E94" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F94" s="3">
         <v>-600</v>
@@ -3727,7 +3727,7 @@
         <v>-400</v>
       </c>
       <c r="J94" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="K94" s="3">
         <v>-400</v>
@@ -3921,7 +3921,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3930,16 +3930,16 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="H100" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I100" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J100" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K100" s="3">
         <v>2700</v>
@@ -3999,7 +3999,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="E102" s="3">
         <v>-1500</v>
@@ -4008,7 +4008,7 @@
         <v>-1500</v>
       </c>
       <c r="G102" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H102" s="3">
         <v>1300</v>
@@ -4017,7 +4017,7 @@
         <v>-500</v>
       </c>
       <c r="J102" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="K102" s="3">
         <v>900</v>

--- a/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1800</v>
-      </c>
       <c r="H17" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="I17" s="3">
         <v>-600</v>
       </c>
       <c r="J17" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K17" s="3">
         <v>1600</v>
@@ -1070,22 +1070,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>600</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1900</v>
       </c>
       <c r="K18" s="3">
         <v>-1600</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-1900</v>
       </c>
       <c r="K21" s="3">
         <v>-1600</v>
@@ -1216,10 +1216,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J22" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K22" s="3">
         <v>900</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H23" s="3">
-        <v>-2200</v>
+        <v>-2000</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
-        <v>-3500</v>
+        <v>-3200</v>
       </c>
       <c r="K23" s="3">
         <v>-2600</v>
@@ -1297,7 +1297,7 @@
         <v>-100</v>
       </c>
       <c r="J24" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K24" s="3">
         <v>-900</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2000</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="K26" s="3">
         <v>-1700</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-2000</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="K27" s="3">
         <v>-1700</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-2000</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="K33" s="3">
         <v>-1700</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-2000</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="K35" s="3">
         <v>-1700</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9100</v>
+        <v>8500</v>
       </c>
       <c r="E41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F41" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="G41" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="H41" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="I41" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J41" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K41" s="3">
         <v>3000</v>
@@ -1867,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9100</v>
+        <v>8600</v>
       </c>
       <c r="E46" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="F46" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="G46" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="H46" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="I46" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J46" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="K46" s="3">
         <v>3700</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39700</v>
+        <v>37300</v>
       </c>
       <c r="E48" s="3">
-        <v>35000</v>
+        <v>32900</v>
       </c>
       <c r="F48" s="3">
-        <v>41600</v>
+        <v>39100</v>
       </c>
       <c r="G48" s="3">
-        <v>40100</v>
+        <v>37700</v>
       </c>
       <c r="H48" s="3">
-        <v>40100</v>
+        <v>37700</v>
       </c>
       <c r="I48" s="3">
-        <v>36100</v>
+        <v>33900</v>
       </c>
       <c r="J48" s="3">
-        <v>45300</v>
+        <v>42600</v>
       </c>
       <c r="K48" s="3">
         <v>39900</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>48800</v>
+        <v>45900</v>
       </c>
       <c r="E54" s="3">
-        <v>38100</v>
+        <v>35800</v>
       </c>
       <c r="F54" s="3">
-        <v>46300</v>
+        <v>43500</v>
       </c>
       <c r="G54" s="3">
-        <v>46300</v>
+        <v>43600</v>
       </c>
       <c r="H54" s="3">
-        <v>42700</v>
+        <v>40100</v>
       </c>
       <c r="I54" s="3">
-        <v>37300</v>
+        <v>35100</v>
       </c>
       <c r="J54" s="3">
-        <v>47200</v>
+        <v>44300</v>
       </c>
       <c r="K54" s="3">
         <v>43600</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="K61" s="3">
         <v>6600</v>
@@ -2762,19 +2762,19 @@
         <v>400</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
       </c>
       <c r="I66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J66" s="3">
-        <v>7700</v>
+        <v>7200</v>
       </c>
       <c r="K66" s="3">
         <v>6400</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-40600</v>
+        <v>-38200</v>
       </c>
       <c r="E72" s="3">
-        <v>-39500</v>
+        <v>-37200</v>
       </c>
       <c r="F72" s="3">
-        <v>-38100</v>
+        <v>-35800</v>
       </c>
       <c r="G72" s="3">
-        <v>-56800</v>
+        <v>-53400</v>
       </c>
       <c r="H72" s="3">
-        <v>-54900</v>
+        <v>-51700</v>
       </c>
       <c r="I72" s="3">
-        <v>-57600</v>
+        <v>-54200</v>
       </c>
       <c r="J72" s="3">
-        <v>-47600</v>
+        <v>-44800</v>
       </c>
       <c r="K72" s="3">
         <v>-28000</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>48400</v>
+        <v>45500</v>
       </c>
       <c r="E76" s="3">
-        <v>37700</v>
+        <v>35400</v>
       </c>
       <c r="F76" s="3">
-        <v>46100</v>
+        <v>43400</v>
       </c>
       <c r="G76" s="3">
-        <v>46000</v>
+        <v>43200</v>
       </c>
       <c r="H76" s="3">
-        <v>42400</v>
+        <v>39800</v>
       </c>
       <c r="I76" s="3">
-        <v>36900</v>
+        <v>34700</v>
       </c>
       <c r="J76" s="3">
-        <v>39500</v>
+        <v>37100</v>
       </c>
       <c r="K76" s="3">
         <v>37200</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-2000</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="K81" s="3">
         <v>-1700</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E89" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="F89" s="3">
         <v>-1000</v>
       </c>
       <c r="G89" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="H89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-1100</v>
       </c>
       <c r="K89" s="3">
         <v>-1400</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-600</v>
       </c>
       <c r="G91" s="3">
         <v>-700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I91" s="3">
         <v>-1100</v>
       </c>
       <c r="J91" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="K91" s="3">
         <v>-500</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-600</v>
       </c>
       <c r="G94" s="3">
         <v>-700</v>
       </c>
       <c r="H94" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="I94" s="3">
         <v>-400</v>
       </c>
       <c r="J94" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="K94" s="3">
         <v>-400</v>
@@ -3921,7 +3921,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3930,16 +3930,16 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="H100" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="I100" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J100" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K100" s="3">
         <v>2700</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="E102" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="F102" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="G102" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="H102" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I102" s="3">
         <v>-500</v>
       </c>
       <c r="J102" s="3">
-        <v>-2100</v>
+        <v>-1900</v>
       </c>
       <c r="K102" s="3">
         <v>900</v>

--- a/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>1600</v>
       </c>
       <c r="E17" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F17" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G17" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H17" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I17" s="3">
         <v>-600</v>
@@ -1073,7 +1073,7 @@
         <v>-1600</v>
       </c>
       <c r="F18" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G18" s="3">
         <v>-1700</v>
@@ -1085,7 +1085,7 @@
         <v>600</v>
       </c>
       <c r="J18" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="K18" s="3">
         <v>-1600</v>
@@ -1162,13 +1162,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E21" s="3">
         <v>-1600</v>
       </c>
       <c r="F21" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1180,7 +1180,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="K21" s="3">
         <v>-1600</v>
@@ -1216,10 +1216,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J22" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K22" s="3">
         <v>900</v>
@@ -1246,19 +1246,19 @@
         <v>-1600</v>
       </c>
       <c r="F23" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G23" s="3">
         <v>-1700</v>
       </c>
       <c r="H23" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="K23" s="3">
         <v>-2600</v>
@@ -1363,19 +1363,19 @@
         <v>-1600</v>
       </c>
       <c r="F26" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G26" s="3">
         <v>-1700</v>
       </c>
       <c r="H26" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="K26" s="3">
         <v>-1700</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E27" s="3">
         <v>-1600</v>
       </c>
       <c r="F27" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G27" s="3">
         <v>-1700</v>
       </c>
       <c r="H27" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="K27" s="3">
         <v>-1700</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E33" s="3">
         <v>-1600</v>
       </c>
       <c r="F33" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G33" s="3">
         <v>-1700</v>
       </c>
       <c r="H33" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="K33" s="3">
         <v>-1700</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E35" s="3">
         <v>-1600</v>
       </c>
       <c r="F35" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G35" s="3">
         <v>-1700</v>
       </c>
       <c r="H35" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="K35" s="3">
         <v>-1700</v>
@@ -1825,19 +1825,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="E41" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F41" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G41" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="H41" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I41" s="3">
         <v>1100</v>
@@ -1867,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="E46" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F46" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="G46" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="H46" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="I46" s="3">
         <v>1200</v>
       </c>
       <c r="J46" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K46" s="3">
         <v>3700</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37300</v>
+        <v>38000</v>
       </c>
       <c r="E48" s="3">
-        <v>32900</v>
+        <v>33500</v>
       </c>
       <c r="F48" s="3">
-        <v>39100</v>
+        <v>39800</v>
       </c>
       <c r="G48" s="3">
-        <v>37700</v>
+        <v>38400</v>
       </c>
       <c r="H48" s="3">
-        <v>37700</v>
+        <v>38400</v>
       </c>
       <c r="I48" s="3">
-        <v>33900</v>
+        <v>34500</v>
       </c>
       <c r="J48" s="3">
-        <v>42600</v>
+        <v>43400</v>
       </c>
       <c r="K48" s="3">
         <v>39900</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>45900</v>
+        <v>46700</v>
       </c>
       <c r="E54" s="3">
+        <v>36500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>44300</v>
+      </c>
+      <c r="G54" s="3">
+        <v>44400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>40900</v>
+      </c>
+      <c r="I54" s="3">
         <v>35800</v>
       </c>
-      <c r="F54" s="3">
-        <v>43500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>43600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>40100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>35100</v>
-      </c>
       <c r="J54" s="3">
-        <v>44300</v>
+        <v>45200</v>
       </c>
       <c r="K54" s="3">
         <v>43600</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="K61" s="3">
         <v>6600</v>
@@ -2774,7 +2774,7 @@
         <v>400</v>
       </c>
       <c r="J66" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="K66" s="3">
         <v>6400</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-38200</v>
+        <v>-38900</v>
       </c>
       <c r="E72" s="3">
-        <v>-37200</v>
+        <v>-37900</v>
       </c>
       <c r="F72" s="3">
-        <v>-35800</v>
+        <v>-36400</v>
       </c>
       <c r="G72" s="3">
-        <v>-53400</v>
+        <v>-54400</v>
       </c>
       <c r="H72" s="3">
-        <v>-51700</v>
+        <v>-52600</v>
       </c>
       <c r="I72" s="3">
-        <v>-54200</v>
+        <v>-55200</v>
       </c>
       <c r="J72" s="3">
-        <v>-44800</v>
+        <v>-45600</v>
       </c>
       <c r="K72" s="3">
         <v>-28000</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45500</v>
+        <v>46400</v>
       </c>
       <c r="E76" s="3">
-        <v>35400</v>
+        <v>36100</v>
       </c>
       <c r="F76" s="3">
-        <v>43400</v>
+        <v>44200</v>
       </c>
       <c r="G76" s="3">
-        <v>43200</v>
+        <v>44000</v>
       </c>
       <c r="H76" s="3">
-        <v>39800</v>
+        <v>40600</v>
       </c>
       <c r="I76" s="3">
-        <v>34700</v>
+        <v>35300</v>
       </c>
       <c r="J76" s="3">
-        <v>37100</v>
+        <v>37800</v>
       </c>
       <c r="K76" s="3">
         <v>37200</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E81" s="3">
         <v>-1600</v>
       </c>
       <c r="F81" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G81" s="3">
         <v>-1700</v>
       </c>
       <c r="H81" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="K81" s="3">
         <v>-1700</v>
@@ -3548,13 +3548,13 @@
         <v>-1100</v>
       </c>
       <c r="H89" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I89" s="3">
         <v>-2200</v>
       </c>
       <c r="J89" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="K89" s="3">
         <v>-1400</v>
@@ -3598,7 +3598,7 @@
         <v>-400</v>
       </c>
       <c r="F91" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="G91" s="3">
         <v>-700</v>
@@ -3715,13 +3715,13 @@
         <v>-400</v>
       </c>
       <c r="F94" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="G94" s="3">
         <v>-700</v>
       </c>
       <c r="H94" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I94" s="3">
         <v>-400</v>
@@ -3921,7 +3921,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3930,10 +3930,10 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="H100" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I100" s="3">
         <v>2100</v>
@@ -3999,10 +3999,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="E102" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="F102" s="3">
         <v>-1400</v>
@@ -4011,13 +4011,13 @@
         <v>3400</v>
       </c>
       <c r="H102" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I102" s="3">
         <v>-500</v>
       </c>
       <c r="J102" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="K102" s="3">
         <v>900</v>

--- a/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t>BNNLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,64 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41820</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41090</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -727,13 +730,13 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -742,23 +745,26 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -795,9 +801,12 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,9 +843,12 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +864,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -881,18 +894,21 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,48 +945,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
-        <v>-3100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>-2900</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -993,23 +1015,26 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,47 +1047,51 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2200</v>
-      </c>
       <c r="I17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J17" s="3">
         <v>-600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1070,38 +1099,41 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>600</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
+      <c r="M18" s="3">
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,8 +1149,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1135,76 +1168,82 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="E21" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1212,69 +1251,75 @@
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>800</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>900</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-2100</v>
-      </c>
       <c r="I23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1291,29 +1336,32 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-900</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,9 +1650,12 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1603,68 +1672,74 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41820</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41090</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,61 +1904,65 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8700</v>
+        <v>34400</v>
       </c>
       <c r="E41" s="3">
-        <v>500</v>
+        <v>8200</v>
       </c>
       <c r="F41" s="3">
-        <v>4400</v>
+        <v>400</v>
       </c>
       <c r="G41" s="3">
-        <v>5800</v>
+        <v>4100</v>
       </c>
       <c r="H41" s="3">
-        <v>2400</v>
+        <v>5500</v>
       </c>
       <c r="I41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3000</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="3">
-        <v>2500</v>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>2300</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1884,60 +1973,66 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3">
         <v>600</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
+      <c r="M42" s="3">
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1974,14 +2069,17 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -1996,85 +2094,91 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8700</v>
+        <v>39300</v>
       </c>
       <c r="E46" s="3">
-        <v>3000</v>
+        <v>8300</v>
       </c>
       <c r="F46" s="3">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="G46" s="3">
-        <v>5900</v>
+        <v>4300</v>
       </c>
       <c r="H46" s="3">
-        <v>2500</v>
+        <v>5600</v>
       </c>
       <c r="I46" s="3">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="J46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3700</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
+      <c r="M46" s="3">
+        <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2082,57 +2186,63 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38000</v>
+        <v>40000</v>
       </c>
       <c r="E48" s="3">
-        <v>33500</v>
+        <v>36000</v>
       </c>
       <c r="F48" s="3">
-        <v>39800</v>
+        <v>31800</v>
       </c>
       <c r="G48" s="3">
-        <v>38400</v>
+        <v>37700</v>
       </c>
       <c r="H48" s="3">
-        <v>38400</v>
+        <v>36400</v>
       </c>
       <c r="I48" s="3">
-        <v>34500</v>
+        <v>36400</v>
       </c>
       <c r="J48" s="3">
+        <v>32700</v>
+      </c>
+      <c r="K48" s="3">
         <v>43400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>39900</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2169,9 +2279,12 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,9 +2363,12 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2259,17 +2378,17 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2277,8 +2396,8 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2286,9 +2405,12 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2447,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>46700</v>
+        <v>79300</v>
       </c>
       <c r="E54" s="3">
-        <v>36500</v>
+        <v>44300</v>
       </c>
       <c r="F54" s="3">
-        <v>44300</v>
+        <v>34600</v>
       </c>
       <c r="G54" s="3">
-        <v>44400</v>
+        <v>42000</v>
       </c>
       <c r="H54" s="3">
-        <v>40900</v>
+        <v>42100</v>
       </c>
       <c r="I54" s="3">
-        <v>35800</v>
+        <v>38800</v>
       </c>
       <c r="J54" s="3">
+        <v>33900</v>
+      </c>
+      <c r="K54" s="3">
         <v>45200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,13 +2528,14 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -2423,23 +2553,26 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2449,8 +2582,8 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2464,32 +2597,35 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -2507,22 +2643,25 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -2531,7 +2670,7 @@
         <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
@@ -2540,23 +2679,26 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
+        <v>200</v>
+      </c>
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
+      <c r="M60" s="3">
+        <v>0</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2579,23 +2721,26 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>7200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2609,7 +2754,7 @@
         <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
@@ -2618,11 +2763,11 @@
         <v>300</v>
       </c>
       <c r="J62" s="3">
+        <v>200</v>
+      </c>
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2632,9 +2777,12 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2903,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
       </c>
       <c r="F66" s="3">
+        <v>400</v>
+      </c>
+      <c r="G66" s="3">
         <v>100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>300</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
       </c>
       <c r="I66" s="3">
+        <v>300</v>
+      </c>
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6400</v>
       </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
+      <c r="M66" s="3">
+        <v>0</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3131,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-38900</v>
+        <v>-38400</v>
       </c>
       <c r="E72" s="3">
-        <v>-37900</v>
+        <v>-36800</v>
       </c>
       <c r="F72" s="3">
-        <v>-36400</v>
+        <v>-35900</v>
       </c>
       <c r="G72" s="3">
-        <v>-54400</v>
+        <v>-34500</v>
       </c>
       <c r="H72" s="3">
-        <v>-52600</v>
+        <v>-51600</v>
       </c>
       <c r="I72" s="3">
-        <v>-55200</v>
+        <v>-49900</v>
       </c>
       <c r="J72" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-45600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-28000</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
+      <c r="M72" s="3">
+        <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3299,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46400</v>
+        <v>78000</v>
       </c>
       <c r="E76" s="3">
-        <v>36100</v>
+        <v>43900</v>
       </c>
       <c r="F76" s="3">
-        <v>44200</v>
+        <v>34200</v>
       </c>
       <c r="G76" s="3">
-        <v>44000</v>
+        <v>41900</v>
       </c>
       <c r="H76" s="3">
-        <v>40600</v>
+        <v>41700</v>
       </c>
       <c r="I76" s="3">
-        <v>35300</v>
+        <v>38400</v>
       </c>
       <c r="J76" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K76" s="3">
         <v>37800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>37200</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
+      <c r="M76" s="3">
+        <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41820</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41090</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,8 +3493,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3310,8 +3508,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3319,14 +3517,14 @@
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="3">
-        <v>100</v>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>100</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3334,9 +3532,12 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,14 +3742,17 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1000</v>
+        <v>-1500</v>
       </c>
       <c r="E89" s="3">
         <v>-1000</v>
@@ -3545,32 +3761,35 @@
         <v>-1000</v>
       </c>
       <c r="G89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
-        <v>-1000</v>
-      </c>
       <c r="I89" s="3">
-        <v>-2200</v>
+        <v>-900</v>
       </c>
       <c r="J89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3805,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
-        <v>-600</v>
-      </c>
       <c r="G91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
-        <v>-1100</v>
-      </c>
       <c r="J91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,48 +3928,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
-        <v>-600</v>
-      </c>
       <c r="G94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H94" s="3">
         <v>-700</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-500</v>
       </c>
       <c r="I94" s="3">
         <v>-400</v>
       </c>
       <c r="J94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,8 +3991,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,48 +4156,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7800</v>
+        <v>35900</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>5200</v>
-      </c>
       <c r="H100" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L100" s="3">
         <v>2700</v>
       </c>
-      <c r="I100" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K100" s="3">
-        <v>2700</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3986,52 +4234,58 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5800</v>
+        <v>26100</v>
       </c>
       <c r="E102" s="3">
-        <v>-1500</v>
+        <v>5500</v>
       </c>
       <c r="F102" s="3">
         <v>-1400</v>
       </c>
       <c r="G102" s="3">
-        <v>3400</v>
+        <v>-1400</v>
       </c>
       <c r="H102" s="3">
-        <v>1300</v>
+        <v>3200</v>
       </c>
       <c r="I102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
@@ -1297,7 +1297,7 @@
         <v>-1600</v>
       </c>
       <c r="I23" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
@@ -1911,7 +1911,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34400</v>
+        <v>34200</v>
       </c>
       <c r="E41" s="3">
         <v>8200</v>
@@ -2121,10 +2121,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>39300</v>
+        <v>39200</v>
       </c>
       <c r="E46" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="F46" s="3">
         <v>2800</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40000</v>
+        <v>39800</v>
       </c>
       <c r="E48" s="3">
-        <v>36000</v>
+        <v>35900</v>
       </c>
       <c r="F48" s="3">
-        <v>31800</v>
+        <v>31600</v>
       </c>
       <c r="G48" s="3">
-        <v>37700</v>
+        <v>37600</v>
       </c>
       <c r="H48" s="3">
-        <v>36400</v>
+        <v>36300</v>
       </c>
       <c r="I48" s="3">
-        <v>36400</v>
+        <v>36300</v>
       </c>
       <c r="J48" s="3">
-        <v>32700</v>
+        <v>32600</v>
       </c>
       <c r="K48" s="3">
         <v>43400</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79300</v>
+        <v>79000</v>
       </c>
       <c r="E54" s="3">
-        <v>44300</v>
+        <v>44100</v>
       </c>
       <c r="F54" s="3">
-        <v>34600</v>
+        <v>34400</v>
       </c>
       <c r="G54" s="3">
-        <v>42000</v>
+        <v>41800</v>
       </c>
       <c r="H54" s="3">
-        <v>42100</v>
+        <v>41900</v>
       </c>
       <c r="I54" s="3">
-        <v>38800</v>
+        <v>38600</v>
       </c>
       <c r="J54" s="3">
-        <v>33900</v>
+        <v>33800</v>
       </c>
       <c r="K54" s="3">
         <v>45200</v>
@@ -2913,7 +2913,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-38400</v>
+        <v>-38300</v>
       </c>
       <c r="E72" s="3">
-        <v>-36800</v>
+        <v>-36700</v>
       </c>
       <c r="F72" s="3">
-        <v>-35900</v>
+        <v>-35700</v>
       </c>
       <c r="G72" s="3">
-        <v>-34500</v>
+        <v>-34400</v>
       </c>
       <c r="H72" s="3">
-        <v>-51600</v>
+        <v>-51300</v>
       </c>
       <c r="I72" s="3">
-        <v>-49900</v>
+        <v>-49700</v>
       </c>
       <c r="J72" s="3">
-        <v>-52300</v>
+        <v>-52100</v>
       </c>
       <c r="K72" s="3">
         <v>-45600</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>78000</v>
+        <v>77700</v>
       </c>
       <c r="E76" s="3">
-        <v>43900</v>
+        <v>43800</v>
       </c>
       <c r="F76" s="3">
-        <v>34200</v>
+        <v>34100</v>
       </c>
       <c r="G76" s="3">
-        <v>41900</v>
+        <v>41700</v>
       </c>
       <c r="H76" s="3">
-        <v>41700</v>
+        <v>41600</v>
       </c>
       <c r="I76" s="3">
-        <v>38400</v>
+        <v>38300</v>
       </c>
       <c r="J76" s="3">
-        <v>33500</v>
+        <v>33400</v>
       </c>
       <c r="K76" s="3">
         <v>37800</v>
@@ -3752,10 +3752,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="E89" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="F89" s="3">
         <v>-1000</v>
@@ -3764,7 +3764,7 @@
         <v>-900</v>
       </c>
       <c r="H89" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="I89" s="3">
         <v>-900</v>
@@ -3812,7 +3812,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="E91" s="3">
         <v>-1000</v>
@@ -3938,7 +3938,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8300</v>
+        <v>-8200</v>
       </c>
       <c r="E94" s="3">
         <v>-1000</v>
@@ -4166,7 +4166,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>35900</v>
+        <v>35700</v>
       </c>
       <c r="E100" s="3">
         <v>7400</v>
@@ -4178,7 +4178,7 @@
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="I100" s="3">
         <v>2500</v>
@@ -4250,7 +4250,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>26100</v>
+        <v>26000</v>
       </c>
       <c r="E102" s="3">
         <v>5500</v>

--- a/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
@@ -1297,7 +1297,7 @@
         <v>-1600</v>
       </c>
       <c r="I23" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
@@ -1911,7 +1911,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34200</v>
+        <v>34400</v>
       </c>
       <c r="E41" s="3">
         <v>8200</v>
@@ -2121,10 +2121,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>39200</v>
+        <v>39300</v>
       </c>
       <c r="E46" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="F46" s="3">
         <v>2800</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39800</v>
+        <v>40000</v>
       </c>
       <c r="E48" s="3">
-        <v>35900</v>
+        <v>36000</v>
       </c>
       <c r="F48" s="3">
-        <v>31600</v>
+        <v>31800</v>
       </c>
       <c r="G48" s="3">
-        <v>37600</v>
+        <v>37700</v>
       </c>
       <c r="H48" s="3">
-        <v>36300</v>
+        <v>36400</v>
       </c>
       <c r="I48" s="3">
-        <v>36300</v>
+        <v>36400</v>
       </c>
       <c r="J48" s="3">
-        <v>32600</v>
+        <v>32700</v>
       </c>
       <c r="K48" s="3">
         <v>43400</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79000</v>
+        <v>79300</v>
       </c>
       <c r="E54" s="3">
-        <v>44100</v>
+        <v>44300</v>
       </c>
       <c r="F54" s="3">
-        <v>34400</v>
+        <v>34600</v>
       </c>
       <c r="G54" s="3">
-        <v>41800</v>
+        <v>42000</v>
       </c>
       <c r="H54" s="3">
-        <v>41900</v>
+        <v>42100</v>
       </c>
       <c r="I54" s="3">
-        <v>38600</v>
+        <v>38800</v>
       </c>
       <c r="J54" s="3">
-        <v>33800</v>
+        <v>33900</v>
       </c>
       <c r="K54" s="3">
         <v>45200</v>
@@ -2913,7 +2913,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-38300</v>
+        <v>-38400</v>
       </c>
       <c r="E72" s="3">
-        <v>-36700</v>
+        <v>-36800</v>
       </c>
       <c r="F72" s="3">
-        <v>-35700</v>
+        <v>-35900</v>
       </c>
       <c r="G72" s="3">
-        <v>-34400</v>
+        <v>-34500</v>
       </c>
       <c r="H72" s="3">
-        <v>-51300</v>
+        <v>-51600</v>
       </c>
       <c r="I72" s="3">
-        <v>-49700</v>
+        <v>-49900</v>
       </c>
       <c r="J72" s="3">
-        <v>-52100</v>
+        <v>-52300</v>
       </c>
       <c r="K72" s="3">
         <v>-45600</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>77700</v>
+        <v>78000</v>
       </c>
       <c r="E76" s="3">
-        <v>43800</v>
+        <v>43900</v>
       </c>
       <c r="F76" s="3">
-        <v>34100</v>
+        <v>34200</v>
       </c>
       <c r="G76" s="3">
+        <v>41900</v>
+      </c>
+      <c r="H76" s="3">
         <v>41700</v>
       </c>
-      <c r="H76" s="3">
-        <v>41600</v>
-      </c>
       <c r="I76" s="3">
-        <v>38300</v>
+        <v>38400</v>
       </c>
       <c r="J76" s="3">
-        <v>33400</v>
+        <v>33500</v>
       </c>
       <c r="K76" s="3">
         <v>37800</v>
@@ -3752,10 +3752,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E89" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="F89" s="3">
         <v>-1000</v>
@@ -3764,7 +3764,7 @@
         <v>-900</v>
       </c>
       <c r="H89" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="I89" s="3">
         <v>-900</v>
@@ -3812,7 +3812,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="E91" s="3">
         <v>-1000</v>
@@ -3938,7 +3938,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8200</v>
+        <v>-8300</v>
       </c>
       <c r="E94" s="3">
         <v>-1000</v>
@@ -4166,7 +4166,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>35700</v>
+        <v>35900</v>
       </c>
       <c r="E100" s="3">
         <v>7400</v>
@@ -4178,7 +4178,7 @@
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="I100" s="3">
         <v>2500</v>
@@ -4250,7 +4250,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>26000</v>
+        <v>26100</v>
       </c>
       <c r="E102" s="3">
         <v>5500</v>

--- a/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
@@ -1054,19 +1054,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E17" s="3">
         <v>1500</v>
       </c>
       <c r="F17" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G17" s="3">
         <v>1600</v>
       </c>
       <c r="H17" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I17" s="3">
         <v>2000</v>
@@ -1198,7 +1198,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="E21" s="3">
         <v>-1500</v>
@@ -1297,7 +1297,7 @@
         <v>-1600</v>
       </c>
       <c r="I23" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
@@ -1423,7 +1423,7 @@
         <v>-1600</v>
       </c>
       <c r="I26" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1450,7 +1450,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="E27" s="3">
         <v>-1500</v>
@@ -1459,13 +1459,13 @@
         <v>-1500</v>
       </c>
       <c r="G27" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="H27" s="3">
         <v>-1600</v>
       </c>
       <c r="I27" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1702,7 +1702,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="E33" s="3">
         <v>-1500</v>
@@ -1711,13 +1711,13 @@
         <v>-1500</v>
       </c>
       <c r="G33" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="H33" s="3">
         <v>-1600</v>
       </c>
       <c r="I33" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -1786,7 +1786,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="E35" s="3">
         <v>-1500</v>
@@ -1795,13 +1795,13 @@
         <v>-1500</v>
       </c>
       <c r="G35" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="H35" s="3">
         <v>-1600</v>
       </c>
       <c r="I35" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -1911,10 +1911,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34400</v>
+        <v>33700</v>
       </c>
       <c r="E41" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="F41" s="3">
         <v>400</v>
@@ -1923,13 +1923,13 @@
         <v>4100</v>
       </c>
       <c r="H41" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="I41" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J41" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K41" s="3">
         <v>1600</v>
@@ -2079,7 +2079,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2121,19 +2121,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>39300</v>
+        <v>38500</v>
       </c>
       <c r="E46" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="F46" s="3">
         <v>2800</v>
       </c>
       <c r="G46" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="H46" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="I46" s="3">
         <v>2300</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40000</v>
+        <v>39200</v>
       </c>
       <c r="E48" s="3">
-        <v>36000</v>
+        <v>35300</v>
       </c>
       <c r="F48" s="3">
-        <v>31800</v>
+        <v>31100</v>
       </c>
       <c r="G48" s="3">
-        <v>37700</v>
+        <v>37000</v>
       </c>
       <c r="H48" s="3">
-        <v>36400</v>
+        <v>35700</v>
       </c>
       <c r="I48" s="3">
-        <v>36400</v>
+        <v>35700</v>
       </c>
       <c r="J48" s="3">
-        <v>32700</v>
+        <v>32100</v>
       </c>
       <c r="K48" s="3">
         <v>43400</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79300</v>
+        <v>77700</v>
       </c>
       <c r="E54" s="3">
-        <v>44300</v>
+        <v>43400</v>
       </c>
       <c r="F54" s="3">
-        <v>34600</v>
+        <v>33900</v>
       </c>
       <c r="G54" s="3">
-        <v>42000</v>
+        <v>41200</v>
       </c>
       <c r="H54" s="3">
-        <v>42100</v>
+        <v>41200</v>
       </c>
       <c r="I54" s="3">
-        <v>38800</v>
+        <v>38000</v>
       </c>
       <c r="J54" s="3">
-        <v>33900</v>
+        <v>33200</v>
       </c>
       <c r="K54" s="3">
         <v>45200</v>
@@ -2913,7 +2913,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-38400</v>
+        <v>-37600</v>
       </c>
       <c r="E72" s="3">
-        <v>-36800</v>
+        <v>-36100</v>
       </c>
       <c r="F72" s="3">
-        <v>-35900</v>
+        <v>-35200</v>
       </c>
       <c r="G72" s="3">
-        <v>-34500</v>
+        <v>-33800</v>
       </c>
       <c r="H72" s="3">
-        <v>-51600</v>
+        <v>-50500</v>
       </c>
       <c r="I72" s="3">
-        <v>-49900</v>
+        <v>-48900</v>
       </c>
       <c r="J72" s="3">
-        <v>-52300</v>
+        <v>-51200</v>
       </c>
       <c r="K72" s="3">
         <v>-45600</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>78000</v>
+        <v>76500</v>
       </c>
       <c r="E76" s="3">
-        <v>43900</v>
+        <v>43100</v>
       </c>
       <c r="F76" s="3">
-        <v>34200</v>
+        <v>33500</v>
       </c>
       <c r="G76" s="3">
-        <v>41900</v>
+        <v>41000</v>
       </c>
       <c r="H76" s="3">
-        <v>41700</v>
+        <v>40900</v>
       </c>
       <c r="I76" s="3">
-        <v>38400</v>
+        <v>37700</v>
       </c>
       <c r="J76" s="3">
-        <v>33500</v>
+        <v>32800</v>
       </c>
       <c r="K76" s="3">
         <v>37800</v>
@@ -3440,7 +3440,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="E81" s="3">
         <v>-1500</v>
@@ -3449,13 +3449,13 @@
         <v>-1500</v>
       </c>
       <c r="G81" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="H81" s="3">
         <v>-1600</v>
       </c>
       <c r="I81" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -3752,10 +3752,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="E89" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="F89" s="3">
         <v>-1000</v>
@@ -3764,13 +3764,13 @@
         <v>-900</v>
       </c>
       <c r="H89" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="I89" s="3">
         <v>-900</v>
       </c>
       <c r="J89" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="K89" s="3">
         <v>-1100</v>
@@ -3812,7 +3812,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="E91" s="3">
         <v>-1000</v>
@@ -3938,7 +3938,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8300</v>
+        <v>-8100</v>
       </c>
       <c r="E94" s="3">
         <v>-1000</v>
@@ -4166,10 +4166,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>35900</v>
+        <v>35100</v>
       </c>
       <c r="E100" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -4178,13 +4178,13 @@
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="I100" s="3">
         <v>2500</v>
       </c>
       <c r="J100" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K100" s="3">
         <v>1300</v>
@@ -4250,16 +4250,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>26100</v>
+        <v>25600</v>
       </c>
       <c r="E102" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="F102" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="G102" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="H102" s="3">
         <v>3200</v>
@@ -4268,7 +4268,7 @@
         <v>1200</v>
       </c>
       <c r="J102" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="K102" s="3">
         <v>-2000</v>

--- a/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNNLF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
   <si>
     <t>BNNLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,84 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41820</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41090</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>900</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -748,23 +751,26 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -804,9 +810,12 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -846,9 +855,12 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,8 +877,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -897,18 +910,21 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,51 +964,57 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>1000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-2900</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1018,23 +1040,26 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,58 +1073,62 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1500</v>
       </c>
       <c r="F17" s="3">
         <v>1500</v>
       </c>
       <c r="G17" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H17" s="3">
         <v>1600</v>
       </c>
       <c r="I17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-3000</v>
       </c>
       <c r="E18" s="3">
-        <v>-1500</v>
+        <v>-2200</v>
       </c>
       <c r="F18" s="3">
         <v>-1500</v>
@@ -1108,32 +1137,35 @@
         <v>-1500</v>
       </c>
       <c r="H18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
+      <c r="N18" s="3">
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1150,13 +1182,14 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1171,46 +1204,49 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2200</v>
       </c>
-      <c r="E21" s="3">
-        <v>-1500</v>
-      </c>
       <c r="F21" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="H21" s="3">
+        <v>-1400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1218,24 +1254,27 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1245,8 +1284,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1254,38 +1293,41 @@
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>900</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1500</v>
       </c>
       <c r="F23" s="3">
         <v>-1500</v>
@@ -1294,32 +1336,35 @@
         <v>-1500</v>
       </c>
       <c r="H23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2600</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1339,29 +1384,32 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-900</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1401,17 +1449,20 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2300</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-1500</v>
       </c>
       <c r="F26" s="3">
         <v>-1500</v>
@@ -1420,74 +1471,80 @@
         <v>-1500</v>
       </c>
       <c r="H26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-1500</v>
       </c>
       <c r="F27" s="3">
         <v>-1500</v>
       </c>
       <c r="G27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1527,9 +1584,12 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1569,9 +1629,12 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1611,9 +1674,12 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1653,14 +1719,17 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1675,71 +1744,77 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2200</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1500</v>
       </c>
       <c r="F33" s="3">
         <v>-1500</v>
       </c>
       <c r="G33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1779,98 +1854,107 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2200</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1500</v>
       </c>
       <c r="F35" s="3">
         <v>-1500</v>
       </c>
       <c r="G35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41820</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41090</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1887,8 +1971,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1905,134 +1990,144 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>33700</v>
+        <v>1100</v>
       </c>
       <c r="E41" s="3">
-        <v>8100</v>
+        <v>4500</v>
       </c>
       <c r="F41" s="3">
+        <v>900</v>
+      </c>
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
-        <v>4100</v>
-      </c>
       <c r="H41" s="3">
-        <v>5400</v>
-      </c>
-      <c r="I41" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3000</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>29100</v>
       </c>
       <c r="F42" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G42" s="3">
         <v>2300</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2200</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3">
         <v>600</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
+      <c r="N42" s="3">
+        <v>0</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2072,18 +2167,21 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>4800</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
@@ -2097,91 +2195,97 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>38500</v>
+        <v>28100</v>
       </c>
       <c r="E46" s="3">
+        <v>38400</v>
+      </c>
+      <c r="F46" s="3">
         <v>8100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3700</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
+      <c r="N46" s="3">
+        <v>0</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>6000</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2189,60 +2293,66 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39200</v>
+        <v>39100</v>
       </c>
       <c r="E48" s="3">
-        <v>35300</v>
+        <v>39100</v>
       </c>
       <c r="F48" s="3">
+        <v>35200</v>
+      </c>
+      <c r="G48" s="3">
         <v>31100</v>
       </c>
-      <c r="G48" s="3">
-        <v>37000</v>
-      </c>
       <c r="H48" s="3">
-        <v>35700</v>
+        <v>36900</v>
       </c>
       <c r="I48" s="3">
-        <v>35700</v>
+        <v>35600</v>
       </c>
       <c r="J48" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K48" s="3">
         <v>32100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>43400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>39900</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2282,9 +2392,12 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2324,9 +2437,12 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2366,9 +2482,12 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2381,17 +2500,17 @@
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2399,8 +2518,8 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
@@ -2408,9 +2527,12 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2450,51 +2572,57 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>77700</v>
+        <v>73100</v>
       </c>
       <c r="E54" s="3">
-        <v>43400</v>
+        <v>77500</v>
       </c>
       <c r="F54" s="3">
-        <v>33900</v>
+        <v>43300</v>
       </c>
       <c r="G54" s="3">
-        <v>41200</v>
+        <v>33800</v>
       </c>
       <c r="H54" s="3">
-        <v>41200</v>
+        <v>41100</v>
       </c>
       <c r="I54" s="3">
-        <v>38000</v>
+        <v>41100</v>
       </c>
       <c r="J54" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K54" s="3">
         <v>33200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2511,8 +2639,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2529,16 +2658,17 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -2556,23 +2686,26 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2585,8 +2718,8 @@
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2600,21 +2733,24 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2622,13 +2758,13 @@
         <v>400</v>
       </c>
       <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -2646,34 +2782,37 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
-      </c>
-      <c r="E60" s="3">
-        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
       </c>
       <c r="G60" s="3">
+        <v>200</v>
+      </c>
+      <c r="H60" s="3">
         <v>100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -2682,23 +2821,26 @@
         <v>200</v>
       </c>
       <c r="K60" s="3">
+        <v>200</v>
+      </c>
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
+      <c r="N60" s="3">
+        <v>0</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2724,23 +2866,26 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>7200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2757,20 +2902,20 @@
         <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
       </c>
       <c r="J62" s="3">
+        <v>300</v>
+      </c>
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2780,9 +2925,12 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2822,9 +2970,12 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2864,9 +3015,12 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2906,9 +3060,12 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2916,41 +3073,44 @@
         <v>1200</v>
       </c>
       <c r="E66" s="3">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="F66" s="3">
         <v>400</v>
       </c>
       <c r="G66" s="3">
+        <v>400</v>
+      </c>
+      <c r="H66" s="3">
         <v>100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>300</v>
       </c>
       <c r="I66" s="3">
         <v>300</v>
       </c>
       <c r="J66" s="3">
+        <v>300</v>
+      </c>
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6400</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
+      <c r="N66" s="3">
+        <v>0</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2967,8 +3127,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3008,9 +3169,12 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3050,9 +3214,12 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3092,9 +3259,12 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3134,51 +3304,57 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-37600</v>
       </c>
-      <c r="E72" s="3">
-        <v>-36100</v>
-      </c>
       <c r="F72" s="3">
-        <v>-35200</v>
+        <v>-36000</v>
       </c>
       <c r="G72" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="H72" s="3">
         <v>-33800</v>
       </c>
-      <c r="H72" s="3">
-        <v>-50500</v>
-      </c>
       <c r="I72" s="3">
-        <v>-48900</v>
+        <v>-50400</v>
       </c>
       <c r="J72" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-51200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-45600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-28000</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
+      <c r="N72" s="3">
+        <v>0</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3218,9 +3394,12 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3260,9 +3439,12 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3302,51 +3484,57 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>76500</v>
+        <v>71900</v>
       </c>
       <c r="E76" s="3">
-        <v>43100</v>
+        <v>76300</v>
       </c>
       <c r="F76" s="3">
-        <v>33500</v>
+        <v>43000</v>
       </c>
       <c r="G76" s="3">
-        <v>41000</v>
+        <v>33400</v>
       </c>
       <c r="H76" s="3">
         <v>40900</v>
       </c>
       <c r="I76" s="3">
-        <v>37700</v>
+        <v>40800</v>
       </c>
       <c r="J76" s="3">
+        <v>37600</v>
+      </c>
+      <c r="K76" s="3">
         <v>32800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>37800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>37200</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
+      <c r="N76" s="3">
+        <v>0</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3386,98 +3574,107 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41820</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41090</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2200</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1500</v>
       </c>
       <c r="F81" s="3">
         <v>-1500</v>
       </c>
       <c r="G81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3494,8 +3691,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3511,8 +3709,8 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3520,14 +3718,14 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>100</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>100</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3535,9 +3733,12 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3577,9 +3778,12 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3619,9 +3823,12 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3661,9 +3868,12 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3703,9 +3913,12 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3745,51 +3958,57 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3806,50 +4025,54 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3889,9 +4112,12 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3931,51 +4157,57 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-400</v>
       </c>
       <c r="J94" s="3">
         <v>-400</v>
       </c>
       <c r="K94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L94" s="3">
         <v>-2200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3992,8 +4224,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4033,9 +4266,12 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4075,9 +4311,12 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4117,9 +4356,12 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4159,56 +4401,62 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>35100</v>
       </c>
-      <c r="E100" s="3">
-        <v>7300</v>
-      </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4237,55 +4485,61 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>25600</v>
+        <v>-6000</v>
       </c>
       <c r="E102" s="3">
+        <v>25500</v>
+      </c>
+      <c r="F102" s="3">
         <v>5400</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-1300</v>
       </c>
       <c r="G102" s="3">
         <v>-1300</v>
       </c>
       <c r="H102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I102" s="3">
         <v>3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P102" s="3"/>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
